--- a/ExportExcel/Delete Academic Degrees Test.xlsx
+++ b/ExportExcel/Delete Academic Degrees Test.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t>STT</t>
+  </si>
   <si>
     <t>Test Case Name</t>
   </si>
   <si>
+    <t>Test Name</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -29,10 +35,13 @@
     <t>testDeleteSuccess</t>
   </si>
   <si>
+    <t>TC_DeleteADM_01</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>875 ms</t>
+    <t>2779 ms</t>
   </si>
   <si>
     <t/>
@@ -41,13 +50,19 @@
     <t>testDeleteFailWithDataAvailable</t>
   </si>
   <si>
-    <t>1397 ms</t>
+    <t>TC_DeleteADM_02</t>
+  </si>
+  <si>
+    <t>1731 ms</t>
   </si>
   <si>
     <t>testDeleteFailWithFindNotFound</t>
   </si>
   <si>
-    <t>1177 ms</t>
+    <t>TC_DeleteADM_03</t>
+  </si>
+  <si>
+    <t>1098 ms</t>
   </si>
 </sst>
 </file>
@@ -64,12 +79,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,24 +119,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.76171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.40625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.08203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.2109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -117,47 +156,71 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D2" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>7</v>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>10</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ExportExcel/Delete Academic Degrees Test.xlsx
+++ b/ExportExcel/Delete Academic Degrees Test.xlsx
@@ -41,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>2779 ms</t>
+    <t>3029 ms</t>
   </si>
   <si>
     <t/>
@@ -53,7 +53,7 @@
     <t>TC_DeleteADM_02</t>
   </si>
   <si>
-    <t>1731 ms</t>
+    <t>1808 ms</t>
   </si>
   <si>
     <t>testDeleteFailWithFindNotFound</t>
@@ -62,7 +62,7 @@
     <t>TC_DeleteADM_03</t>
   </si>
   <si>
-    <t>1098 ms</t>
+    <t>1383 ms</t>
   </si>
 </sst>
 </file>

--- a/ExportExcel/Delete Academic Degrees Test.xlsx
+++ b/ExportExcel/Delete Academic Degrees Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -41,7 +41,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>3029 ms</t>
+    <t>1845 ms</t>
   </si>
   <si>
     <t/>
@@ -53,16 +53,7 @@
     <t>TC_DeleteADM_02</t>
   </si>
   <si>
-    <t>1808 ms</t>
-  </si>
-  <si>
-    <t>testDeleteFailWithFindNotFound</t>
-  </si>
-  <si>
-    <t>TC_DeleteADM_03</t>
-  </si>
-  <si>
-    <t>1383 ms</t>
+    <t>2389 ms</t>
   </si>
 </sst>
 </file>
@@ -129,14 +120,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.76171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.40625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.08203125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.2109375" customWidth="true" bestFit="true"/>
@@ -203,26 +194,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
